--- a/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code/files/post_editing_sample.xlsx
+++ b/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code/files/post_editing_sample.xlsx
@@ -805,13 +805,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A968F57-0DC8-4129-B01E-0CE049FC3E00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43BB8783-3C71-4251-8881-51F3249E8C2C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B95A80-9211-4964-B0D9-E00AE5FA0EF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ABBD41D-926F-4A7A-9A93-50A70D178C55}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB1938D-14BD-4E7E-8C86-C771EA8CB352}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBBB3875-0331-401C-BE49-48771152CD67}"/>
 </file>